--- a/worktp.xlsx
+++ b/worktp.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nithu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nithu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC9FBDA-FF1D-40E5-A834-3C80557747F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AC4809-8916-4B32-9E7E-AC41A87FC115}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -125,9 +125,6 @@
   </si>
   <si>
     <t>User should be navigated to the Account Page</t>
-  </si>
-  <si>
-    <t>Reworked</t>
   </si>
   <si>
     <t>Modified Step</t>
@@ -562,7 +559,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -703,10 +700,10 @@
         <v>34</v>
       </c>
       <c r="I6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
         <v>35</v>
-      </c>
-      <c r="K6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -714,21 +711,21 @@
         <v>19</v>
       </c>
       <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
         <v>37</v>
-      </c>
-      <c r="H7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
         <v>39</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -737,13 +734,13 @@
         <v>15</v>
       </c>
       <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
         <v>42</v>
       </c>
-      <c r="H8" t="s">
-        <v>43</v>
-      </c>
       <c r="I8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -782,18 +779,18 @@
         <v>27</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
         <v>45</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>46</v>
-      </c>
-      <c r="C12" t="s">
-        <v>47</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -802,13 +799,13 @@
         <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I12" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -816,13 +813,13 @@
         <v>19</v>
       </c>
       <c r="G13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" t="s">
         <v>49</v>
       </c>
-      <c r="H13" t="s">
-        <v>50</v>
-      </c>
       <c r="K13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -830,10 +827,10 @@
         <v>23</v>
       </c>
       <c r="G14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" t="s">
         <v>51</v>
-      </c>
-      <c r="H14" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
